--- a/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
+++ b/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="23955" windowHeight="12090"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="342">
   <si>
     <t>BPoEFUbVT BAU Perc of Each Fuel Used by Veh Technology</t>
   </si>
@@ -1076,6 +1076,18 @@
   <si>
     <t>disregard the small amount of aviation gasoline used.</t>
   </si>
+  <si>
+    <t>Mexico customization</t>
+  </si>
+  <si>
+    <t>In the Mexico EPS, the passenger rail subscript only includes subways.</t>
+  </si>
+  <si>
+    <t>Therefore, we use 100% electricity for these modes</t>
+  </si>
+  <si>
+    <t>Notes from U.S. vesion</t>
+  </si>
 </sst>
 </file>
 
@@ -1231,7 +1243,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1286,6 +1298,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="4"/>
@@ -1594,21 +1607,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1616,208 +1629,234 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="24">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="24">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="28"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>335</v>
       </c>
     </row>
@@ -1836,9 +1875,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -2802,9 +2841,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -3806,7 +3845,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3821,9 +3860,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -4717,9 +4756,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -5613,9 +5652,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -6582,9 +6621,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -7548,9 +7587,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -8552,7 +8591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8567,9 +8606,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -9465,11 +9504,11 @@
       <selection pane="bottomRight" activeCell="AL45" sqref="AL45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13329,7 +13368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
@@ -13448,7 +13487,7 @@
         <v>-2.852E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>101</v>
       </c>
@@ -13567,7 +13606,7 @@
         <v>-2.7800999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>100</v>
       </c>
@@ -13686,7 +13725,7 @@
         <v>-8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>99</v>
       </c>
@@ -13805,7 +13844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>98</v>
       </c>
@@ -13924,7 +13963,7 @@
         <v>2.6468999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>97</v>
       </c>
@@ -14043,7 +14082,7 @@
         <v>5.1929999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
@@ -14162,7 +14201,7 @@
         <v>-9.3400000000000004E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>94</v>
       </c>
@@ -14281,7 +14320,7 @@
         <v>7.1720000000000004E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>92</v>
       </c>
@@ -14400,7 +14439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>90</v>
       </c>
@@ -14519,7 +14558,7 @@
         <v>0.133795</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>88</v>
       </c>
@@ -14638,7 +14677,7 @@
         <v>1.5932999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>86</v>
       </c>
@@ -14757,7 +14796,7 @@
         <v>1.6053999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>84</v>
       </c>
@@ -14876,7 +14915,7 @@
         <v>-2.5900000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>82</v>
       </c>
@@ -14995,7 +15034,7 @@
         <v>8.5489999999999993E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>80</v>
       </c>
@@ -15114,7 +15153,7 @@
         <v>9.1380000000000003E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>78</v>
       </c>
@@ -15233,7 +15272,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>76</v>
       </c>
@@ -15352,7 +15391,7 @@
         <v>9.1380000000000003E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>74</v>
       </c>
@@ -15471,7 +15510,7 @@
         <v>5.9680000000000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>72</v>
       </c>
@@ -15590,7 +15629,7 @@
         <v>2.0279999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>70</v>
       </c>
@@ -15709,7 +15748,7 @@
         <v>-1.021E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>69</v>
       </c>
@@ -15828,7 +15867,7 @@
         <v>-2.436E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>68</v>
       </c>
@@ -15947,7 +15986,7 @@
         <v>4.7035E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>67</v>
       </c>
@@ -16066,7 +16105,7 @@
         <v>-3.9919999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>66</v>
       </c>
@@ -16185,7 +16224,7 @@
         <v>6.051E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>64</v>
       </c>
@@ -16304,7 +16343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>63</v>
       </c>
@@ -16423,7 +16462,7 @@
         <v>6.051E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>62</v>
       </c>
@@ -16542,7 +16581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>61</v>
       </c>
@@ -16661,7 +16700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>60</v>
       </c>
@@ -16780,7 +16819,7 @@
         <v>8.9750000000000003E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>58</v>
       </c>
@@ -16899,7 +16938,7 @@
         <v>8.9750000000000003E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>56</v>
       </c>
@@ -17018,7 +17057,7 @@
         <v>8.5749999999999993E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>54</v>
       </c>
@@ -17137,7 +17176,7 @@
         <v>3.1677999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>52</v>
       </c>
@@ -17256,7 +17295,7 @@
         <v>8.9750000000000003E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>50</v>
       </c>
@@ -17375,7 +17414,7 @@
         <v>1.0508E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>48</v>
       </c>
@@ -17494,7 +17533,7 @@
         <v>8.94E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>46</v>
       </c>
@@ -17613,7 +17652,7 @@
         <v>8.94E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>45</v>
       </c>
@@ -17732,7 +17771,7 @@
         <v>8.94E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>44</v>
       </c>
@@ -17851,7 +17890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>43</v>
       </c>
@@ -17970,7 +18009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>42</v>
       </c>
@@ -18089,7 +18128,7 @@
         <v>9.606E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>40</v>
       </c>
@@ -18208,7 +18247,7 @@
         <v>9.606E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>39</v>
       </c>
@@ -18327,7 +18366,7 @@
         <v>1.2196E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>37</v>
       </c>
@@ -18446,7 +18485,7 @@
         <v>1.1379999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>35</v>
       </c>
@@ -18565,7 +18604,7 @@
         <v>1.2609E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>33</v>
       </c>
@@ -18684,7 +18723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>31</v>
       </c>
@@ -18803,7 +18842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>28</v>
       </c>
@@ -18922,7 +18961,7 @@
         <v>7.378E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>26</v>
       </c>
@@ -19041,7 +19080,7 @@
         <v>4.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>24</v>
       </c>
@@ -19160,7 +19199,7 @@
         <v>1.5277000000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>22</v>
       </c>
@@ -19279,7 +19318,7 @@
         <v>1.2880000000000001E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>20</v>
       </c>
@@ -19398,7 +19437,7 @@
         <v>5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>18</v>
       </c>
@@ -19517,8 +19556,8 @@
         <v>-3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="27" t="s">
         <v>16</v>
       </c>
@@ -19560,72 +19599,72 @@
       <c r="AL110" s="27"/>
       <c r="AM110" s="27"/>
     </row>
-    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
         <v>2</v>
       </c>
@@ -19648,9 +19687,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -20544,9 +20583,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -21440,9 +21479,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -22406,9 +22445,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -23407,7 +23446,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23422,9 +23461,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -24318,9 +24357,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -25216,9 +25255,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -26182,9 +26221,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -27148,9 +27187,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -28151,11 +28190,11 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -31068,7 +31107,7 @@
         <v>1.0691000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>227</v>
       </c>
@@ -31187,7 +31226,7 @@
         <v>1.4339999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>226</v>
       </c>
@@ -31306,7 +31345,7 @@
         <v>6.8623000000000003E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>225</v>
       </c>
@@ -31425,7 +31464,7 @@
         <v>3.0067E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>224</v>
       </c>
@@ -31544,12 +31583,12 @@
         <v>1.7298000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>221</v>
       </c>
@@ -31668,7 +31707,7 @@
         <v>-2.6129999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>219</v>
       </c>
@@ -31787,7 +31826,7 @@
         <v>4.3687999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>217</v>
       </c>
@@ -31906,7 +31945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>215</v>
       </c>
@@ -32025,17 +32064,17 @@
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>211</v>
       </c>
@@ -32154,7 +32193,7 @@
         <v>8.5554000000000005E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>209</v>
       </c>
@@ -32273,7 +32312,7 @@
         <v>2.7820999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>207</v>
       </c>
@@ -32392,7 +32431,7 @@
         <v>2.7342999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>205</v>
       </c>
@@ -32511,7 +32550,7 @@
         <v>9.7493999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>204</v>
       </c>
@@ -32630,7 +32669,7 @@
         <v>9.724E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>203</v>
       </c>
@@ -32749,7 +32788,7 @@
         <v>4.7280999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>201</v>
       </c>
@@ -32868,7 +32907,7 @@
         <v>4.3639999999999998E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>199</v>
       </c>
@@ -32987,7 +33026,7 @@
         <v>6.2715999999999994E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>197</v>
       </c>
@@ -33106,8 +33145,8 @@
         <v>4.8741E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="27" t="s">
         <v>195</v>
       </c>
@@ -33149,137 +33188,137 @@
       <c r="AL69" s="27"/>
       <c r="AM69" s="27"/>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>170</v>
       </c>
@@ -33302,7 +33341,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33317,9 +33356,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -34213,9 +34252,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -35107,13 +35146,11 @@
   </sheetPr>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -35227,289 +35264,219 @@
       <c r="A2" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="16">
-        <f>SUM('AEO 37'!D89,'AEO 37'!D94,'AEO 37'!D96)/'AEO 37'!D87</f>
-        <v>0.52220450505309601</v>
-      </c>
-      <c r="C2" s="16">
-        <f>SUM('AEO 37'!E89,'AEO 37'!E94,'AEO 37'!E96)/'AEO 37'!E87</f>
-        <v>0.522311233460654</v>
-      </c>
-      <c r="D2" s="16">
-        <f>SUM('AEO 37'!F89,'AEO 37'!F94,'AEO 37'!F96)/'AEO 37'!F87</f>
-        <v>0.52147192999436209</v>
-      </c>
-      <c r="E2" s="16">
-        <f>SUM('AEO 37'!G89,'AEO 37'!G94,'AEO 37'!G96)/'AEO 37'!G87</f>
-        <v>0.52238761776697107</v>
-      </c>
-      <c r="F2" s="16">
-        <f>SUM('AEO 37'!H89,'AEO 37'!H94,'AEO 37'!H96)/'AEO 37'!H87</f>
-        <v>0.52267268981654258</v>
-      </c>
-      <c r="G2" s="16">
-        <f>SUM('AEO 37'!I89,'AEO 37'!I94,'AEO 37'!I96)/'AEO 37'!I87</f>
-        <v>0.52289476421347458</v>
-      </c>
-      <c r="H2" s="16">
-        <f>SUM('AEO 37'!J89,'AEO 37'!J94,'AEO 37'!J96)/'AEO 37'!J87</f>
-        <v>0.52309732515990703</v>
-      </c>
-      <c r="I2" s="16">
-        <f>SUM('AEO 37'!K89,'AEO 37'!K94,'AEO 37'!K96)/'AEO 37'!K87</f>
-        <v>0.52278076492134651</v>
-      </c>
-      <c r="J2" s="16">
-        <f>SUM('AEO 37'!L89,'AEO 37'!L94,'AEO 37'!L96)/'AEO 37'!L87</f>
-        <v>0.52245741914430033</v>
-      </c>
-      <c r="K2" s="16">
-        <f>SUM('AEO 37'!M89,'AEO 37'!M94,'AEO 37'!M96)/'AEO 37'!M87</f>
-        <v>0.52227441068339109</v>
-      </c>
-      <c r="L2" s="16">
-        <f>SUM('AEO 37'!N89,'AEO 37'!N94,'AEO 37'!N96)/'AEO 37'!N87</f>
-        <v>0.52203778359570874</v>
-      </c>
-      <c r="M2" s="16">
-        <f>SUM('AEO 37'!O89,'AEO 37'!O94,'AEO 37'!O96)/'AEO 37'!O87</f>
-        <v>0.52166018881312992</v>
-      </c>
-      <c r="N2" s="16">
-        <f>SUM('AEO 37'!P89,'AEO 37'!P94,'AEO 37'!P96)/'AEO 37'!P87</f>
-        <v>0.52113068116102312</v>
-      </c>
-      <c r="O2" s="16">
-        <f>SUM('AEO 37'!Q89,'AEO 37'!Q94,'AEO 37'!Q96)/'AEO 37'!Q87</f>
-        <v>0.52081408299942489</v>
-      </c>
-      <c r="P2" s="16">
-        <f>SUM('AEO 37'!R89,'AEO 37'!R94,'AEO 37'!R96)/'AEO 37'!R87</f>
-        <v>0.5206120577371115</v>
-      </c>
-      <c r="Q2" s="16">
-        <f>SUM('AEO 37'!S89,'AEO 37'!S94,'AEO 37'!S96)/'AEO 37'!S87</f>
-        <v>0.52039540945815244</v>
-      </c>
-      <c r="R2" s="16">
-        <f>SUM('AEO 37'!T89,'AEO 37'!T94,'AEO 37'!T96)/'AEO 37'!T87</f>
-        <v>0.52020355520701167</v>
-      </c>
-      <c r="S2" s="16">
-        <f>SUM('AEO 37'!U89,'AEO 37'!U94,'AEO 37'!U96)/'AEO 37'!U87</f>
-        <v>0.51971740858432347</v>
-      </c>
-      <c r="T2" s="16">
-        <f>SUM('AEO 37'!V89,'AEO 37'!V94,'AEO 37'!V96)/'AEO 37'!V87</f>
-        <v>0.51943468243694257</v>
-      </c>
-      <c r="U2" s="16">
-        <f>SUM('AEO 37'!W89,'AEO 37'!W94,'AEO 37'!W96)/'AEO 37'!W87</f>
-        <v>0.5190603500592037</v>
-      </c>
-      <c r="V2" s="16">
-        <f>SUM('AEO 37'!X89,'AEO 37'!X94,'AEO 37'!X96)/'AEO 37'!X87</f>
-        <v>0.51893973679154604</v>
-      </c>
-      <c r="W2" s="16">
-        <f>SUM('AEO 37'!Y89,'AEO 37'!Y94,'AEO 37'!Y96)/'AEO 37'!Y87</f>
-        <v>0.51850807685912537</v>
-      </c>
-      <c r="X2" s="16">
-        <f>SUM('AEO 37'!Z89,'AEO 37'!Z94,'AEO 37'!Z96)/'AEO 37'!Z87</f>
-        <v>0.51811802886128555</v>
-      </c>
-      <c r="Y2" s="16">
-        <f>SUM('AEO 37'!AA89,'AEO 37'!AA94,'AEO 37'!AA96)/'AEO 37'!AA87</f>
-        <v>0.51788154775524253</v>
-      </c>
-      <c r="Z2" s="16">
-        <f>SUM('AEO 37'!AB89,'AEO 37'!AB94,'AEO 37'!AB96)/'AEO 37'!AB87</f>
-        <v>0.51754153072312192</v>
-      </c>
-      <c r="AA2" s="16">
-        <f>SUM('AEO 37'!AC89,'AEO 37'!AC94,'AEO 37'!AC96)/'AEO 37'!AC87</f>
-        <v>0.51717996465551286</v>
-      </c>
-      <c r="AB2" s="16">
-        <f>SUM('AEO 37'!AD89,'AEO 37'!AD94,'AEO 37'!AD96)/'AEO 37'!AD87</f>
-        <v>0.51676307000485688</v>
-      </c>
-      <c r="AC2" s="16">
-        <f>SUM('AEO 37'!AE89,'AEO 37'!AE94,'AEO 37'!AE96)/'AEO 37'!AE87</f>
-        <v>0.51636142105175964</v>
-      </c>
-      <c r="AD2" s="16">
-        <f>SUM('AEO 37'!AF89,'AEO 37'!AF94,'AEO 37'!AF96)/'AEO 37'!AF87</f>
-        <v>0.51597415903020361</v>
-      </c>
-      <c r="AE2" s="16">
-        <f>SUM('AEO 37'!AG89,'AEO 37'!AG94,'AEO 37'!AG96)/'AEO 37'!AG87</f>
-        <v>0.51557418698896507</v>
-      </c>
-      <c r="AF2" s="16">
-        <f>SUM('AEO 37'!AH89,'AEO 37'!AH94,'AEO 37'!AH96)/'AEO 37'!AH87</f>
-        <v>0.51516912918477953</v>
-      </c>
-      <c r="AG2" s="16">
-        <f>SUM('AEO 37'!AI89,'AEO 37'!AI94,'AEO 37'!AI96)/'AEO 37'!AI87</f>
-        <v>0.51479775750168699</v>
-      </c>
-      <c r="AH2" s="16">
-        <f>SUM('AEO 37'!AJ89,'AEO 37'!AJ94,'AEO 37'!AJ96)/'AEO 37'!AJ87</f>
-        <v>0.51432047627523747</v>
-      </c>
-      <c r="AI2" s="16">
-        <f>SUM('AEO 37'!AK89,'AEO 37'!AK94,'AEO 37'!AK96)/'AEO 37'!AK87</f>
-        <v>0.51397815537679503</v>
-      </c>
-      <c r="AJ2" s="16">
-        <f>SUM('AEO 37'!AL89,'AEO 37'!AL94,'AEO 37'!AL96)/'AEO 37'!AL87</f>
-        <v>0.51376954714774958</v>
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1</v>
+      </c>
+      <c r="I2" s="20">
+        <v>1</v>
+      </c>
+      <c r="J2" s="20">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20">
+        <v>1</v>
+      </c>
+      <c r="L2" s="20">
+        <v>1</v>
+      </c>
+      <c r="M2" s="20">
+        <v>1</v>
+      </c>
+      <c r="N2" s="20">
+        <v>1</v>
+      </c>
+      <c r="O2" s="20">
+        <v>1</v>
+      </c>
+      <c r="P2" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>1</v>
+      </c>
+      <c r="R2" s="20">
+        <v>1</v>
+      </c>
+      <c r="S2" s="20">
+        <v>1</v>
+      </c>
+      <c r="T2" s="20">
+        <v>1</v>
+      </c>
+      <c r="U2" s="20">
+        <v>1</v>
+      </c>
+      <c r="V2" s="20">
+        <v>1</v>
+      </c>
+      <c r="W2" s="20">
+        <v>1</v>
+      </c>
+      <c r="X2" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="20">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="16">
-        <f>SUM('AEO 37'!D91:D92,'AEO 37'!D98:D99)/'AEO 37'!D87</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <f>SUM('AEO 37'!E91:E92,'AEO 37'!E98:E99)/'AEO 37'!E87</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <f>SUM('AEO 37'!F91:F92,'AEO 37'!F98:F99)/'AEO 37'!F87</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <f>SUM('AEO 37'!G91:G92,'AEO 37'!G98:G99)/'AEO 37'!G87</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <f>SUM('AEO 37'!H91:H92,'AEO 37'!H98:H99)/'AEO 37'!H87</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <f>SUM('AEO 37'!I91:I92,'AEO 37'!I98:I99)/'AEO 37'!I87</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <f>SUM('AEO 37'!J91:J92,'AEO 37'!J98:J99)/'AEO 37'!J87</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
-        <f>SUM('AEO 37'!K91:K92,'AEO 37'!K98:K99)/'AEO 37'!K87</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <f>SUM('AEO 37'!L91:L92,'AEO 37'!L98:L99)/'AEO 37'!L87</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <f>SUM('AEO 37'!M91:M92,'AEO 37'!M98:M99)/'AEO 37'!M87</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <f>SUM('AEO 37'!N91:N92,'AEO 37'!N98:N99)/'AEO 37'!N87</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <f>SUM('AEO 37'!O91:O92,'AEO 37'!O98:O99)/'AEO 37'!O87</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
-        <f>SUM('AEO 37'!P91:P92,'AEO 37'!P98:P99)/'AEO 37'!P87</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="16">
-        <f>SUM('AEO 37'!Q91:Q92,'AEO 37'!Q98:Q99)/'AEO 37'!Q87</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="16">
-        <f>SUM('AEO 37'!R91:R92,'AEO 37'!R98:R99)/'AEO 37'!R87</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16">
-        <f>SUM('AEO 37'!S91:S92,'AEO 37'!S98:S99)/'AEO 37'!S87</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="16">
-        <f>SUM('AEO 37'!T91:T92,'AEO 37'!T98:T99)/'AEO 37'!T87</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="16">
-        <f>SUM('AEO 37'!U91:U92,'AEO 37'!U98:U99)/'AEO 37'!U87</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="16">
-        <f>SUM('AEO 37'!V91:V92,'AEO 37'!V98:V99)/'AEO 37'!V87</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="16">
-        <f>SUM('AEO 37'!W91:W92,'AEO 37'!W98:W99)/'AEO 37'!W87</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="16">
-        <f>SUM('AEO 37'!X91:X92,'AEO 37'!X98:X99)/'AEO 37'!X87</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="16">
-        <f>SUM('AEO 37'!Y91:Y92,'AEO 37'!Y98:Y99)/'AEO 37'!Y87</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="16">
-        <f>SUM('AEO 37'!Z91:Z92,'AEO 37'!Z98:Z99)/'AEO 37'!Z87</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="16">
-        <f>SUM('AEO 37'!AA91:AA92,'AEO 37'!AA98:AA99)/'AEO 37'!AA87</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16">
-        <f>SUM('AEO 37'!AB91:AB92,'AEO 37'!AB98:AB99)/'AEO 37'!AB87</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16">
-        <f>SUM('AEO 37'!AC91:AC92,'AEO 37'!AC98:AC99)/'AEO 37'!AC87</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="16">
-        <f>SUM('AEO 37'!AD91:AD92,'AEO 37'!AD98:AD99)/'AEO 37'!AD87</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="16">
-        <f>SUM('AEO 37'!AE91:AE92,'AEO 37'!AE98:AE99)/'AEO 37'!AE87</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="16">
-        <f>SUM('AEO 37'!AF91:AF92,'AEO 37'!AF98:AF99)/'AEO 37'!AF87</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="16">
-        <f>SUM('AEO 37'!AG91:AG92,'AEO 37'!AG98:AG99)/'AEO 37'!AG87</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="16">
-        <f>SUM('AEO 37'!AH91:AH92,'AEO 37'!AH98:AH99)/'AEO 37'!AH87</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="16">
-        <f>SUM('AEO 37'!AI91:AI92,'AEO 37'!AI98:AI99)/'AEO 37'!AI87</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="16">
-        <f>SUM('AEO 37'!AJ91:AJ92,'AEO 37'!AJ98:AJ99)/'AEO 37'!AJ87</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="16">
-        <f>SUM('AEO 37'!AK91:AK92,'AEO 37'!AK98:AK99)/'AEO 37'!AK87</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="16">
-        <f>SUM('AEO 37'!AL91:AL92,'AEO 37'!AL98:AL99)/'AEO 37'!AL87</f>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>0</v>
       </c>
     </row>
@@ -35627,145 +35594,110 @@
       <c r="A5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!B30)*(SUM('AEO 37'!D90,'AEO 37'!D97)/'AEO 37'!D87),SUM('AEO 37'!D90,'AEO 37'!D97)/'AEO 37'!D87)</f>
-        <v>0.47779547250590448</v>
-      </c>
-      <c r="C5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!C30)*(SUM('AEO 37'!E90,'AEO 37'!E97)/'AEO 37'!E87),SUM('AEO 37'!E90,'AEO 37'!E97)/'AEO 37'!E87)</f>
-        <v>0.47768872231235682</v>
-      </c>
-      <c r="D5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!D30)*(SUM('AEO 37'!F90,'AEO 37'!F97)/'AEO 37'!F87),SUM('AEO 37'!F90,'AEO 37'!F97)/'AEO 37'!F87)</f>
-        <v>0.47852807000563785</v>
-      </c>
-      <c r="E5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!E30)*(SUM('AEO 37'!G90,'AEO 37'!G97)/'AEO 37'!G87),SUM('AEO 37'!G90,'AEO 37'!G97)/'AEO 37'!G87)</f>
-        <v>0.47761246818255859</v>
-      </c>
-      <c r="F5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!F30)*(SUM('AEO 37'!H90,'AEO 37'!H97)/'AEO 37'!H87),SUM('AEO 37'!H90,'AEO 37'!H97)/'AEO 37'!H87)</f>
-        <v>0.47732737387526114</v>
-      </c>
-      <c r="G5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!G30)*(SUM('AEO 37'!I90,'AEO 37'!I97)/'AEO 37'!I87),SUM('AEO 37'!I90,'AEO 37'!I97)/'AEO 37'!I87)</f>
-        <v>0.47710523578652547</v>
-      </c>
-      <c r="H5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!H30)*(SUM('AEO 37'!J90,'AEO 37'!J97)/'AEO 37'!J87),SUM('AEO 37'!J90,'AEO 37'!J97)/'AEO 37'!J87)</f>
-        <v>0.47690265415897409</v>
-      </c>
-      <c r="I5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!I30)*(SUM('AEO 37'!K90,'AEO 37'!K97)/'AEO 37'!K87),SUM('AEO 37'!K90,'AEO 37'!K97)/'AEO 37'!K87)</f>
-        <v>0.47721929625973342</v>
-      </c>
-      <c r="J5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!J30)*(SUM('AEO 37'!L90,'AEO 37'!L97)/'AEO 37'!L87),SUM('AEO 37'!L90,'AEO 37'!L97)/'AEO 37'!L87)</f>
-        <v>0.47754252050162527</v>
-      </c>
-      <c r="K5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!K30)*(SUM('AEO 37'!M90,'AEO 37'!M97)/'AEO 37'!M87),SUM('AEO 37'!M90,'AEO 37'!M97)/'AEO 37'!M87)</f>
-        <v>0.4777255495623855</v>
-      </c>
-      <c r="L5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!L30)*(SUM('AEO 37'!N90,'AEO 37'!N97)/'AEO 37'!N87),SUM('AEO 37'!N90,'AEO 37'!N97)/'AEO 37'!N87)</f>
-        <v>0.47796215743124915</v>
-      </c>
-      <c r="M5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!M30)*(SUM('AEO 37'!O90,'AEO 37'!O97)/'AEO 37'!O87),SUM('AEO 37'!O90,'AEO 37'!O97)/'AEO 37'!O87)</f>
-        <v>0.47833985003650892</v>
-      </c>
-      <c r="N5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!N30)*(SUM('AEO 37'!P90,'AEO 37'!P97)/'AEO 37'!P87),SUM('AEO 37'!P90,'AEO 37'!P97)/'AEO 37'!P87)</f>
-        <v>0.47886937637168769</v>
-      </c>
-      <c r="O5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!O30)*(SUM('AEO 37'!Q90,'AEO 37'!Q97)/'AEO 37'!Q87),SUM('AEO 37'!Q90,'AEO 37'!Q97)/'AEO 37'!Q87)</f>
-        <v>0.4791859359633075</v>
-      </c>
-      <c r="P5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!P30)*(SUM('AEO 37'!R90,'AEO 37'!R97)/'AEO 37'!R87),SUM('AEO 37'!R90,'AEO 37'!R97)/'AEO 37'!R87)</f>
-        <v>0.47938792348087506</v>
-      </c>
-      <c r="Q5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!Q30)*(SUM('AEO 37'!S90,'AEO 37'!S97)/'AEO 37'!S87),SUM('AEO 37'!S90,'AEO 37'!S97)/'AEO 37'!S87)</f>
-        <v>0.47960455331443641</v>
-      </c>
-      <c r="R5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!R30)*(SUM('AEO 37'!T90,'AEO 37'!T97)/'AEO 37'!T87),SUM('AEO 37'!T90,'AEO 37'!T97)/'AEO 37'!T87)</f>
-        <v>0.47979638947245901</v>
-      </c>
-      <c r="S5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!S30)*(SUM('AEO 37'!U90,'AEO 37'!U97)/'AEO 37'!U87),SUM('AEO 37'!U90,'AEO 37'!U97)/'AEO 37'!U87)</f>
-        <v>0.48028251845251924</v>
-      </c>
-      <c r="T5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!T30)*(SUM('AEO 37'!V90,'AEO 37'!V97)/'AEO 37'!V87),SUM('AEO 37'!V90,'AEO 37'!V97)/'AEO 37'!V87)</f>
-        <v>0.48056535367201864</v>
-      </c>
-      <c r="U5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!U30)*(SUM('AEO 37'!W90,'AEO 37'!W97)/'AEO 37'!W87),SUM('AEO 37'!W90,'AEO 37'!W97)/'AEO 37'!W87)</f>
-        <v>0.48093972141266428</v>
-      </c>
-      <c r="V5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!V30)*(SUM('AEO 37'!X90,'AEO 37'!X97)/'AEO 37'!X87),SUM('AEO 37'!X90,'AEO 37'!X97)/'AEO 37'!X87)</f>
-        <v>0.48106024550593729</v>
-      </c>
-      <c r="W5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!W30)*(SUM('AEO 37'!Y90,'AEO 37'!Y97)/'AEO 37'!Y87),SUM('AEO 37'!Y90,'AEO 37'!Y97)/'AEO 37'!Y87)</f>
-        <v>0.48149185304955677</v>
-      </c>
-      <c r="X5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!X30)*(SUM('AEO 37'!Z90,'AEO 37'!Z97)/'AEO 37'!Z87),SUM('AEO 37'!Z90,'AEO 37'!Z97)/'AEO 37'!Z87)</f>
-        <v>0.48188195379296189</v>
-      </c>
-      <c r="Y5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!Y30)*(SUM('AEO 37'!AA90,'AEO 37'!AA97)/'AEO 37'!AA87),SUM('AEO 37'!AA90,'AEO 37'!AA97)/'AEO 37'!AA87)</f>
-        <v>0.48211846943411552</v>
-      </c>
-      <c r="Z5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!Z30)*(SUM('AEO 37'!AB90,'AEO 37'!AB97)/'AEO 37'!AB87),SUM('AEO 37'!AB90,'AEO 37'!AB97)/'AEO 37'!AB87)</f>
-        <v>0.48245846927687813</v>
-      </c>
-      <c r="AA5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!AA30)*(SUM('AEO 37'!AC90,'AEO 37'!AC97)/'AEO 37'!AC87),SUM('AEO 37'!AC90,'AEO 37'!AC97)/'AEO 37'!AC87)</f>
-        <v>0.48282001845264655</v>
-      </c>
-      <c r="AB5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!AB30)*(SUM('AEO 37'!AD90,'AEO 37'!AD97)/'AEO 37'!AD87),SUM('AEO 37'!AD90,'AEO 37'!AD97)/'AEO 37'!AD87)</f>
-        <v>0.4832369467384226</v>
-      </c>
-      <c r="AC5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!AC30)*(SUM('AEO 37'!AE90,'AEO 37'!AE97)/'AEO 37'!AE87),SUM('AEO 37'!AE90,'AEO 37'!AE97)/'AEO 37'!AE87)</f>
-        <v>0.48363859554889349</v>
-      </c>
-      <c r="AD5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!AD30)*(SUM('AEO 37'!AF90,'AEO 37'!AF97)/'AEO 37'!AF87),SUM('AEO 37'!AF90,'AEO 37'!AF97)/'AEO 37'!AF87)</f>
-        <v>0.48402580803827483</v>
-      </c>
-      <c r="AE5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!AE30)*(SUM('AEO 37'!AG90,'AEO 37'!AG97)/'AEO 37'!AG87),SUM('AEO 37'!AG90,'AEO 37'!AG97)/'AEO 37'!AG87)</f>
-        <v>0.48442582934478207</v>
-      </c>
-      <c r="AF5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!AF30)*(SUM('AEO 37'!AH90,'AEO 37'!AH97)/'AEO 37'!AH87),SUM('AEO 37'!AH90,'AEO 37'!AH97)/'AEO 37'!AH87)</f>
-        <v>0.48483085461005448</v>
-      </c>
-      <c r="AG5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!AG30)*(SUM('AEO 37'!AI90,'AEO 37'!AI97)/'AEO 37'!AI87),SUM('AEO 37'!AI90,'AEO 37'!AI97)/'AEO 37'!AI87)</f>
-        <v>0.48520230683383675</v>
-      </c>
-      <c r="AH5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!AH30)*(SUM('AEO 37'!AJ90,'AEO 37'!AJ97)/'AEO 37'!AJ87),SUM('AEO 37'!AJ90,'AEO 37'!AJ97)/'AEO 37'!AJ87)</f>
-        <v>0.48567949180248743</v>
-      </c>
-      <c r="AI5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!AI30)*(SUM('AEO 37'!AK90,'AEO 37'!AK97)/'AEO 37'!AK87),SUM('AEO 37'!AK90,'AEO 37'!AK97)/'AEO 37'!AK87)</f>
-        <v>0.48602179709866489</v>
-      </c>
-      <c r="AJ5" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,(1-'Biodiesel Fraction'!AJ30)*(SUM('AEO 37'!AL90,'AEO 37'!AL97)/'AEO 37'!AL87),SUM('AEO 37'!AL90,'AEO 37'!AL97)/'AEO 37'!AL87)</f>
-        <v>0.48623048430982629</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -35882,144 +35814,109 @@
       <c r="A7" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!B30*(SUM('AEO 37'!D90,'AEO 37'!D97)/'AEO 37'!D87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!C30*(SUM('AEO 37'!E90,'AEO 37'!E97)/'AEO 37'!E87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!D30*(SUM('AEO 37'!F90,'AEO 37'!F97)/'AEO 37'!F87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!E30*(SUM('AEO 37'!G90,'AEO 37'!G97)/'AEO 37'!G87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!F30*(SUM('AEO 37'!H90,'AEO 37'!H97)/'AEO 37'!H87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!G30*(SUM('AEO 37'!I90,'AEO 37'!I97)/'AEO 37'!I87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!H30*(SUM('AEO 37'!J90,'AEO 37'!J97)/'AEO 37'!J87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!I30*(SUM('AEO 37'!K90,'AEO 37'!K97)/'AEO 37'!K87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!J30*(SUM('AEO 37'!L90,'AEO 37'!L97)/'AEO 37'!L87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!K30*(SUM('AEO 37'!M90,'AEO 37'!M97)/'AEO 37'!M87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!L30*(SUM('AEO 37'!N90,'AEO 37'!N97)/'AEO 37'!N87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!M30*(SUM('AEO 37'!O90,'AEO 37'!O97)/'AEO 37'!O87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!N30*(SUM('AEO 37'!P90,'AEO 37'!P97)/'AEO 37'!P87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!O30*(SUM('AEO 37'!Q90,'AEO 37'!Q97)/'AEO 37'!Q87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!P30*(SUM('AEO 37'!R90,'AEO 37'!R97)/'AEO 37'!R87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!Q30*(SUM('AEO 37'!S90,'AEO 37'!S97)/'AEO 37'!S87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!R30*(SUM('AEO 37'!T90,'AEO 37'!T97)/'AEO 37'!T87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!S30*(SUM('AEO 37'!U90,'AEO 37'!U97)/'AEO 37'!U87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!T30*(SUM('AEO 37'!V90,'AEO 37'!V97)/'AEO 37'!V87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!U30*(SUM('AEO 37'!W90,'AEO 37'!W97)/'AEO 37'!W87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!V30*(SUM('AEO 37'!X90,'AEO 37'!X97)/'AEO 37'!X87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!W30*(SUM('AEO 37'!Y90,'AEO 37'!Y97)/'AEO 37'!Y87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!X30*(SUM('AEO 37'!Z90,'AEO 37'!Z97)/'AEO 37'!Z87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!Y30*(SUM('AEO 37'!AA90,'AEO 37'!AA97)/'AEO 37'!AA87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!Z30*(SUM('AEO 37'!AB90,'AEO 37'!AB97)/'AEO 37'!AB87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!AA30*(SUM('AEO 37'!AC90,'AEO 37'!AC97)/'AEO 37'!AC87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!AB30*(SUM('AEO 37'!AD90,'AEO 37'!AD97)/'AEO 37'!AD87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!AC30*(SUM('AEO 37'!AE90,'AEO 37'!AE97)/'AEO 37'!AE87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!AD30*(SUM('AEO 37'!AF90,'AEO 37'!AF97)/'AEO 37'!AF87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!AE30*(SUM('AEO 37'!AG90,'AEO 37'!AG97)/'AEO 37'!AG87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!AF30*(SUM('AEO 37'!AH90,'AEO 37'!AH97)/'AEO 37'!AH87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!AG30*(SUM('AEO 37'!AI90,'AEO 37'!AI97)/'AEO 37'!AI87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!AH30*(SUM('AEO 37'!AJ90,'AEO 37'!AJ97)/'AEO 37'!AJ87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!AI30*(SUM('AEO 37'!AK90,'AEO 37'!AK97)/'AEO 37'!AK87),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="16">
-        <f>IF('Biodiesel Fraction'!$B22,'Biodiesel Fraction'!AJ30*(SUM('AEO 37'!AL90,'AEO 37'!AL97)/'AEO 37'!AL87),0)</f>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>0</v>
       </c>
     </row>
@@ -36147,9 +36044,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -37148,9 +37045,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -38149,9 +38046,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -39150,7 +39047,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39165,9 +39062,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -40061,9 +39958,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -40954,12 +40851,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.453125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -42833,9 +42730,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -43799,9 +43696,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -44765,9 +44662,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -45766,7 +45663,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45781,9 +45678,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -46677,9 +46574,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -47573,9 +47470,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -48469,9 +48366,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -49365,9 +49262,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -50258,44 +50155,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>314</v>
       </c>
@@ -50314,7 +50211,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50329,9 +50226,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -51225,9 +51122,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -52121,9 +52018,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
